--- a/Homework1/Exer2/CadenaSuministro.xlsx
+++ b/Homework1/Exer2/CadenaSuministro.xlsx
@@ -16,42 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Periodo</t>
-  </si>
-  <si>
-    <t>Demanda por región</t>
-  </si>
-  <si>
-    <t>Región 1</t>
-  </si>
-  <si>
-    <t>Región 2</t>
-  </si>
-  <si>
-    <t>Región 3</t>
-  </si>
-  <si>
-    <t>Región 4</t>
-  </si>
-  <si>
-    <t>Desde la planta de sub-ensambles</t>
-  </si>
-  <si>
-    <t>Costos de transporte</t>
-  </si>
-  <si>
-    <t>Planta de ensamble 1</t>
-  </si>
-  <si>
-    <t>Planta de ensamble 2</t>
-  </si>
-  <si>
-    <t>Planta de ensamble</t>
-  </si>
-  <si>
-    <t>Costo de transporte de producto terminado</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>suben</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>PlantaEnsamble</t>
   </si>
 </sst>
 </file>
@@ -84,23 +75,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,24 +105,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,46 +423,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>800</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C3" s="1">
         <v>1500</v>
@@ -494,194 +479,155 @@
         <v>800</v>
       </c>
       <c r="E3" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="1">
-        <v>800</v>
-      </c>
-      <c r="E4" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B4" s="3">
         <v>1350</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C4" s="3">
         <v>1750</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D4" s="3">
         <v>1000</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E4" s="3">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="C3" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="C4" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B4" s="5">
         <v>1.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C4" s="5">
         <v>2.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>1.1000000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="C3" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="5">
         <v>2.15</v>
       </c>
-      <c r="D3" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7.15</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6.7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2.15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Homework1/Exer2/CadenaSuministro.xlsx
+++ b/Homework1/Exer2/CadenaSuministro.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda" sheetId="1" r:id="rId1"/>
-    <sheet name="CostoTranspEnsa" sheetId="2" r:id="rId2"/>
-    <sheet name="CostoTranspProd" sheetId="3" r:id="rId3"/>
+    <sheet name="CostoPF2PE" sheetId="2" r:id="rId2"/>
+    <sheet name="CostoPE2R" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>R1</t>
   </si>
@@ -30,19 +30,37 @@
     <t>R4</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>suben</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>PlantaEnsamble</t>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PFX</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PEX</t>
   </si>
 </sst>
 </file>
@@ -75,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,11 +119,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -120,6 +182,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -425,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +532,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>1000</v>
       </c>
       <c r="C2" s="1">
@@ -466,10 +549,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
         <v>1200</v>
       </c>
       <c r="C3" s="1">
@@ -483,10 +566,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
         <v>1350</v>
       </c>
       <c r="C4" s="3">
@@ -509,27 +592,27 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9">
         <v>1.8</v>
       </c>
       <c r="C2" s="4">
@@ -537,10 +620,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
         <v>2.9</v>
       </c>
       <c r="C3" s="4">
@@ -548,10 +631,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11">
         <v>1.5</v>
       </c>
       <c r="C4" s="5">
@@ -567,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,9 +659,9 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -594,10 +677,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="5">
@@ -611,10 +694,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11">
         <v>7.15</v>
       </c>
       <c r="C3" s="5">

--- a/Homework1/Exer2/CadenaSuministro.xlsx
+++ b/Homework1/Exer2/CadenaSuministro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Demanda" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>R1</t>
   </si>
@@ -31,15 +31,6 @@
   </si>
   <si>
     <t>TX</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
   </si>
   <si>
     <t>PE1</t>
@@ -508,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,8 +523,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>1000</v>
@@ -549,8 +540,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="7">
         <v>1200</v>
@@ -566,8 +557,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1350</v>
@@ -599,18 +590,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9">
         <v>1.8</v>
@@ -621,7 +612,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10">
         <v>2.9</v>
@@ -632,7 +623,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11">
         <v>1.5</v>
@@ -650,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -661,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -678,7 +669,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12">
         <v>1.1000000000000001</v>
@@ -695,7 +686,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="11">
         <v>7.15</v>

--- a/Homework1/Exer2/CadenaSuministro.xlsx
+++ b/Homework1/Exer2/CadenaSuministro.xlsx
@@ -30,9 +30,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>TX</t>
-  </si>
-  <si>
     <t>PE1</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>PEX</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -500,14 +500,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -590,18 +590,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9">
         <v>1.8</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10">
         <v>2.9</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11">
         <v>1.5</v>
@@ -652,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="12">
         <v>1.1000000000000001</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11">
         <v>7.15</v>
